--- a/정기/분석/유입스테이지분석.xlsx
+++ b/정기/분석/유입스테이지분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JJG\엑셀\정기\분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF9D148-DA51-4C2D-B817-CD8941C60C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F764908E-4083-4CBE-8651-EE7AC8DF6CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{55FF79EF-63C1-4040-A0C2-9522079742EC}"/>
+    <workbookView xWindow="9945" yWindow="480" windowWidth="23700" windowHeight="15480" xr2:uid="{55FF79EF-63C1-4040-A0C2-9522079742EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>스테이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,7 +46,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6~8</t>
+    <t>5~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무과금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22~25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과금(2일돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과금(3일돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과금(5일돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과금(1일돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과금(6일돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과금(7일돌파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,36 +467,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74279DF-004D-4056-821C-86663EB39011}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="6" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>300</v>
       </c>
-      <c r="C5">
-        <v>22</v>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
